--- a/iselUssSyncV2/OutputWSL/20220428_1113_D50L474W90Q20.0U0.32H80G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1113_D50L474W90Q20.0U0.32H80G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>81.197667984189735</v>
+        <v>81.198598751210696</v>
       </c>
       <c r="F2" s="0">
-        <v>81.548656126482172</v>
+        <v>81.549586893503189</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>81.841354581673286</v>
+        <v>81.843629789946746</v>
       </c>
       <c r="F3" s="0">
-        <v>83.37956175298811</v>
+        <v>83.381836961261556</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>81.085158730158724</v>
+        <v>81.087909663798428</v>
       </c>
       <c r="F4" s="0">
-        <v>85.163571428571473</v>
+        <v>85.166322362211176</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>80.281633466135474</v>
+        <v>80.284439556339436</v>
       </c>
       <c r="F5" s="0">
-        <v>85.525856573705198</v>
+        <v>85.528662663909159</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>79.017261904761838</v>
+        <v>79.020116256959568</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,7 +220,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>76.692658730158783</v>
+        <v>76.695554449779536</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -238,10 +238,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>72.106944444444494</v>
+        <v>72.109874636917894</v>
       </c>
       <c r="F8" s="0">
-        <v>82.358690476190446</v>
+        <v>82.361620668663889</v>
       </c>
     </row>
     <row r="9">
@@ -258,7 +258,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>69.630079365079339</v>
+        <v>69.633021416214078</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -276,7 +276,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>66.63928286852591</v>
+        <v>66.642235675190648</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -294,7 +294,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>63.09142857142858</v>
+        <v>63.094391030492062</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -312,7 +312,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>61.34007936507939</v>
+        <v>61.343046236668016</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -330,10 +330,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>59.509206349206359</v>
+        <v>59.512177357537283</v>
       </c>
       <c r="F13" s="0">
-        <v>17.506269841269837</v>
+        <v>17.509240849600779</v>
       </c>
     </row>
     <row r="14">
@@ -350,10 +350,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>57.43498007968126</v>
+        <v>57.437954948971708</v>
       </c>
       <c r="F14" s="0">
-        <v>18.680039840637445</v>
+        <v>18.683014709927885</v>
       </c>
     </row>
     <row r="15">
@@ -370,10 +370,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>54.987023809523812</v>
+        <v>54.99000226399091</v>
       </c>
       <c r="F15" s="0">
-        <v>18.468849206349201</v>
+        <v>18.471827660816313</v>
       </c>
     </row>
     <row r="16">
@@ -390,10 +390,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>50.96661354581672</v>
+        <v>50.969598343288709</v>
       </c>
       <c r="F16" s="0">
-        <v>18.299521912350599</v>
+        <v>18.302506709822588</v>
       </c>
     </row>
     <row r="17">
@@ -410,10 +410,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>46.527928286852593</v>
+        <v>46.53091832419819</v>
       </c>
       <c r="F17" s="0">
-        <v>18.453585657370521</v>
+        <v>18.456575694716108</v>
       </c>
     </row>
     <row r="18">
@@ -430,10 +430,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>45.263452380952394</v>
+        <v>45.266446555040268</v>
       </c>
       <c r="F18" s="0">
-        <v>19.656388888888895</v>
+        <v>19.659383062976801</v>
       </c>
     </row>
     <row r="19">
@@ -450,10 +450,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>40.530717131474105</v>
+        <v>40.5337162696528</v>
       </c>
       <c r="F19" s="0">
-        <v>37.66151394422311</v>
+        <v>37.66451308240179</v>
       </c>
     </row>
     <row r="20">
@@ -470,10 +470,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>35.043426294820698</v>
+        <v>35.046425432999435</v>
       </c>
       <c r="F20" s="0">
-        <v>47.65681274900399</v>
+        <v>47.659811887182663</v>
       </c>
     </row>
     <row r="21">
@@ -490,10 +490,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>30.871872509960159</v>
+        <v>30.874864753568314</v>
       </c>
       <c r="F21" s="0">
-        <v>49.29199203187251</v>
+        <v>49.294984275480665</v>
       </c>
     </row>
     <row r="22">
@@ -510,10 +510,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>27.860876494023902</v>
+        <v>27.863854948491014</v>
       </c>
       <c r="F22" s="0">
-        <v>47.547370517928286</v>
+        <v>47.550348972395383</v>
       </c>
     </row>
     <row r="23">
@@ -530,10 +530,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>25.937539682539658</v>
+        <v>25.940497453295187</v>
       </c>
       <c r="F23" s="0">
-        <v>46.861785714285723</v>
+        <v>46.864743485041252</v>
       </c>
     </row>
     <row r="24">
@@ -550,10 +550,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>28.485873015873018</v>
+        <v>28.488768735493814</v>
       </c>
       <c r="F24" s="0">
-        <v>46.358809523809519</v>
+        <v>46.361705243430329</v>
       </c>
     </row>
     <row r="25">
@@ -570,10 +570,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>57.814444444444447</v>
+        <v>57.817250534648394</v>
       </c>
       <c r="F25" s="0">
-        <v>47.340119047619041</v>
+        <v>47.342925137823016</v>
       </c>
     </row>
     <row r="26">
@@ -590,10 +590,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>38.131626984126981</v>
+        <v>38.134315866632008</v>
       </c>
       <c r="F26" s="0">
-        <v>48.21595238095238</v>
+        <v>48.218641263457407</v>
       </c>
     </row>
     <row r="27">
@@ -610,10 +610,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>61.630873015873007</v>
+        <v>61.633417112396998</v>
       </c>
       <c r="F27" s="0">
-        <v>48.569404761904757</v>
+        <v>48.571948858428755</v>
       </c>
     </row>
     <row r="28">
@@ -630,10 +630,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>45.406071428571437</v>
+        <v>45.40844316083227</v>
       </c>
       <c r="F28" s="0">
-        <v>48.551190476190484</v>
+        <v>48.553562208451318</v>
       </c>
     </row>
     <row r="29">
@@ -650,10 +650,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>47.318884462151388</v>
+        <v>47.321056251866985</v>
       </c>
       <c r="F29" s="0">
-        <v>48.548964143426282</v>
+        <v>48.551135933141886</v>
       </c>
     </row>
     <row r="30">
@@ -670,10 +670,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>45.334761904761905</v>
+        <v>45.336451074540712</v>
       </c>
       <c r="F30" s="0">
-        <v>48.136706349206349</v>
+        <v>48.138395518985149</v>
       </c>
     </row>
   </sheetData>
